--- a/data/trans_orig/P21D_6_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P21D_6_R-Edad-trans_orig.xlsx
@@ -913,7 +913,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>9683</v>
+        <v>10154</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.008235053109150457</v>
@@ -922,7 +922,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.04268983345441195</v>
+        <v>0.04476738858606272</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>1</v>
@@ -934,16 +934,16 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>9134</v>
+        <v>7016</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.006686217962884465</v>
+        <v>0.006686217962884466</v>
       </c>
       <c r="O7" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.03648238529908977</v>
+        <v>0.02802561151177939</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>2</v>
@@ -955,16 +955,16 @@
         <v>0</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>12120</v>
+        <v>12552</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.00742243006829404</v>
+        <v>0.007422430068294039</v>
       </c>
       <c r="V7" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02539912301738374</v>
+        <v>0.02630620389711246</v>
       </c>
     </row>
     <row r="8">
@@ -981,7 +981,7 @@
         <v>224945</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>217130</v>
+        <v>216659</v>
       </c>
       <c r="F8" s="5" t="n">
         <v>226813</v>
@@ -990,7 +990,7 @@
         <v>0.9917649468908496</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9573101665455859</v>
+        <v>0.955232611413937</v>
       </c>
       <c r="I8" s="6" t="n">
         <v>1</v>
@@ -1002,16 +1002,16 @@
         <v>248680</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>241220</v>
+        <v>243338</v>
       </c>
       <c r="M8" s="5" t="n">
         <v>250354</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.9933137820371155</v>
+        <v>0.9933137820371156</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9635176147009095</v>
+        <v>0.9719743884882233</v>
       </c>
       <c r="P8" s="6" t="n">
         <v>1</v>
@@ -1023,7 +1023,7 @@
         <v>473624</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>465046</v>
+        <v>464614</v>
       </c>
       <c r="T8" s="5" t="n">
         <v>477166</v>
@@ -1032,7 +1032,7 @@
         <v>0.9925775699317059</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9746008769826162</v>
+        <v>0.9736937961028875</v>
       </c>
       <c r="W8" s="6" t="n">
         <v>1</v>
@@ -1140,19 +1140,19 @@
         <v>3549</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>1360</v>
+        <v>848</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>7236</v>
+        <v>7819</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.0119652553560288</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.0045850881616326</v>
+        <v>0.002859419032682935</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02439363664234625</v>
+        <v>0.02635756070966937</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>5</v>
@@ -1161,19 +1161,19 @@
         <v>3549</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1368</v>
+        <v>1363</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>7549</v>
+        <v>7889</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.006463261304078814</v>
+        <v>0.006463261304078815</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.002490737643547016</v>
+        <v>0.002482407192188349</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.0137467170020871</v>
+        <v>0.01436651697127641</v>
       </c>
     </row>
     <row r="11">
@@ -1203,19 +1203,19 @@
         <v>293086</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>289399</v>
+        <v>288816</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>295275</v>
+        <v>295787</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.988034744643971</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9756063633576535</v>
+        <v>0.9736424392903307</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9954149118383674</v>
+        <v>0.9971405809673175</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>612</v>
@@ -1224,19 +1224,19 @@
         <v>545604</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>541604</v>
+        <v>541264</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>547785</v>
+        <v>547790</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.9935367386959212</v>
+        <v>0.993536738695921</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9862532829979137</v>
+        <v>0.9856334830287237</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.997509262356453</v>
+        <v>0.9975175928078116</v>
       </c>
     </row>
     <row r="12">
@@ -1331,16 +1331,16 @@
         <v>912</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>8399</v>
+        <v>7608</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.009428094788119219</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.002876910872180413</v>
+        <v>0.002875845647519001</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02649008755262747</v>
+        <v>0.02399615960207527</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>4</v>
@@ -1349,19 +1349,19 @@
         <v>2502</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>648</v>
+        <v>664</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>6286</v>
+        <v>5908</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.007235753159893542</v>
+        <v>0.00723575315989354</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.001873224832711708</v>
+        <v>0.001919470630489158</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.01817683572622067</v>
+        <v>0.01708419701415333</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>7</v>
@@ -1370,19 +1370,19 @@
         <v>5492</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>2244</v>
+        <v>2253</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>10546</v>
+        <v>11329</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.008284397649354014</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.003385221157158257</v>
+        <v>0.003398678707339683</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.01590992270809569</v>
+        <v>0.01709039520642354</v>
       </c>
     </row>
     <row r="14">
@@ -1399,19 +1399,19 @@
         <v>314079</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>308669</v>
+        <v>309460</v>
       </c>
       <c r="F14" s="5" t="n">
         <v>316156</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.9905719052118808</v>
+        <v>0.9905719052118809</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9735099124473727</v>
+        <v>0.9760038403979248</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9971230891278198</v>
+        <v>0.997124154352481</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>524</v>
@@ -1420,19 +1420,19 @@
         <v>343306</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>339522</v>
+        <v>339900</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>345160</v>
+        <v>345144</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9927642468401064</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9818231642737788</v>
+        <v>0.9829158029858466</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9981267751672884</v>
+        <v>0.9980805293695107</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>817</v>
@@ -1441,19 +1441,19 @@
         <v>657383</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>652329</v>
+        <v>651546</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>660631</v>
+        <v>660622</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9917156023506463</v>
+        <v>0.9917156023506462</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9840900772919042</v>
+        <v>0.9829096047935764</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.996614778842842</v>
+        <v>0.9966013212926603</v>
       </c>
     </row>
     <row r="15">
@@ -1548,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>7756</v>
+        <v>7536</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.008822087632411177</v>
@@ -1557,7 +1557,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03024161094707628</v>
+        <v>0.02938112079668918</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>11</v>
@@ -1566,19 +1566,19 @@
         <v>6684</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>3525</v>
+        <v>3532</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>11956</v>
+        <v>11958</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.0262962423380612</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01386727156978529</v>
+        <v>0.01389679319794479</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.04703769749568888</v>
+        <v>0.04704632726849321</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>13</v>
@@ -1587,19 +1587,19 @@
         <v>8947</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>4710</v>
+        <v>4861</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>14936</v>
+        <v>14863</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.01751978248367427</v>
+        <v>0.01751978248367426</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.009224320568533119</v>
+        <v>0.009518959459503646</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02924973816139832</v>
+        <v>0.0291067781538501</v>
       </c>
     </row>
     <row r="17">
@@ -1616,7 +1616,7 @@
         <v>254215</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>248722</v>
+        <v>248942</v>
       </c>
       <c r="F17" s="5" t="n">
         <v>256478</v>
@@ -1625,7 +1625,7 @@
         <v>0.9911779123675889</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9697583890529239</v>
+        <v>0.9706188792033091</v>
       </c>
       <c r="I17" s="6" t="n">
         <v>1</v>
@@ -1637,19 +1637,19 @@
         <v>247492</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>242220</v>
+        <v>242218</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>250651</v>
+        <v>250644</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9737037576619388</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9529623025043109</v>
+        <v>0.9529536727315067</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9861327284302146</v>
+        <v>0.9861032068020552</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>675</v>
@@ -1658,19 +1658,19 @@
         <v>501707</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>495718</v>
+        <v>495791</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>505944</v>
+        <v>505793</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9824802175163257</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9707502618386017</v>
+        <v>0.9708932218461499</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9907756794314669</v>
+        <v>0.9904810405404963</v>
       </c>
     </row>
     <row r="18">
@@ -1765,7 +1765,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>5968</v>
+        <v>4672</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.005349363463132619</v>
@@ -1774,7 +1774,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.03448727217966923</v>
+        <v>0.02700057226580296</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>8</v>
@@ -1783,19 +1783,19 @@
         <v>4771</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>2081</v>
+        <v>2334</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>8960</v>
+        <v>8971</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.02397575220629605</v>
+        <v>0.02397575220629604</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.01045869651836852</v>
+        <v>0.01172813158812824</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.04502749025696019</v>
+        <v>0.04508676539418833</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>9</v>
@@ -1804,19 +1804,19 @@
         <v>5696</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>2745</v>
+        <v>2535</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>10787</v>
+        <v>10314</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.01531169864263506</v>
+        <v>0.01531169864263505</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.007378702317916244</v>
+        <v>0.006815201458891375</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.02899597190925935</v>
+        <v>0.02772249452939083</v>
       </c>
     </row>
     <row r="20">
@@ -1833,7 +1833,7 @@
         <v>172124</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>167082</v>
+        <v>168378</v>
       </c>
       <c r="F20" s="5" t="n">
         <v>173050</v>
@@ -1842,7 +1842,7 @@
         <v>0.9946506365368672</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9655127278203304</v>
+        <v>0.972999427734197</v>
       </c>
       <c r="I20" s="6" t="n">
         <v>1</v>
@@ -1854,19 +1854,19 @@
         <v>194210</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>190021</v>
+        <v>190010</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>196900</v>
+        <v>196647</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.976024247793704</v>
+        <v>0.9760242477937039</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9549725097430399</v>
+        <v>0.954913234605812</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9895413034816321</v>
+        <v>0.9882718684118718</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>606</v>
@@ -1875,19 +1875,19 @@
         <v>366336</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>361245</v>
+        <v>361718</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>369287</v>
+        <v>369497</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.984688301357365</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9710040280907407</v>
+        <v>0.9722775054706094</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9926212976820837</v>
+        <v>0.9931847985411085</v>
       </c>
     </row>
     <row r="21">
@@ -1982,7 +1982,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>4260</v>
+        <v>3154</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.004521328732561106</v>
@@ -1991,7 +1991,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.03288098757191676</v>
+        <v>0.02434567386646371</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>3</v>
@@ -2000,19 +2000,19 @@
         <v>1749</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>4877</v>
+        <v>5286</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.009395905833809991</v>
+        <v>0.009395905833809993</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.003012061305139555</v>
+        <v>0.00300274478907881</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.02619740962341167</v>
+        <v>0.0283973908054655</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>4</v>
@@ -2021,19 +2021,19 @@
         <v>2335</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>577</v>
+        <v>592</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>5688</v>
+        <v>5520</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.007395543962038195</v>
+        <v>0.007395543962038197</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.001827450563716841</v>
+        <v>0.001876252638426462</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.01801596488247176</v>
+        <v>0.01748459670428363</v>
       </c>
     </row>
     <row r="23">
@@ -2050,7 +2050,7 @@
         <v>128975</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>125301</v>
+        <v>126407</v>
       </c>
       <c r="F23" s="5" t="n">
         <v>129561</v>
@@ -2059,7 +2059,7 @@
         <v>0.9954786712674389</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9671190124280844</v>
+        <v>0.9756543261335373</v>
       </c>
       <c r="I23" s="6" t="n">
         <v>1</v>
@@ -2071,19 +2071,19 @@
         <v>184410</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>181282</v>
+        <v>180873</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>185598</v>
+        <v>185600</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.9906040941661899</v>
+        <v>0.9906040941661901</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9738025903765873</v>
+        <v>0.9716026091945346</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9969879386948605</v>
+        <v>0.9969972552109211</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>532</v>
@@ -2092,19 +2092,19 @@
         <v>313385</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>310032</v>
+        <v>310200</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>315143</v>
+        <v>315128</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9926044560379618</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9819840351175267</v>
+        <v>0.9825154032957191</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9981725494362832</v>
+        <v>0.9981237473615736</v>
       </c>
     </row>
     <row r="24">
@@ -2196,19 +2196,19 @@
         <v>8631</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>3755</v>
+        <v>4142</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>16366</v>
+        <v>17806</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.005510759032703635</v>
+        <v>0.005510759032703634</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.002397390635716575</v>
+        <v>0.002644483169476934</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.01044900739447415</v>
+        <v>0.01136871582769895</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>32</v>
@@ -2217,19 +2217,19 @@
         <v>20929</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>14484</v>
+        <v>13730</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>30403</v>
+        <v>29100</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.01234686822717714</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.008544719195993726</v>
+        <v>0.008099540965630434</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.01793577330558031</v>
+        <v>0.01716700591517368</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>40</v>
@@ -2238,19 +2238,19 @@
         <v>29560</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>20731</v>
+        <v>20701</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>40154</v>
+        <v>40222</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.009063833169075669</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.006356458853345961</v>
+        <v>0.006347353080238895</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.0123121623970247</v>
+        <v>0.01233277765215794</v>
       </c>
     </row>
     <row r="26">
@@ -2267,19 +2267,19 @@
         <v>1557637</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1549902</v>
+        <v>1548462</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>1562513</v>
+        <v>1562126</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.9944892409672965</v>
+        <v>0.9944892409672963</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.989550992605526</v>
+        <v>0.9886312841723013</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9976026093642835</v>
+        <v>0.9973555168305236</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>2341</v>
@@ -2288,19 +2288,19 @@
         <v>1674169</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>1664695</v>
+        <v>1665998</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>1680614</v>
+        <v>1681368</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.9876531317728229</v>
+        <v>0.9876531317728228</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9820642266944197</v>
+        <v>0.9828329940848263</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9914552808040062</v>
+        <v>0.9919004590343695</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>3791</v>
@@ -2309,19 +2309,19 @@
         <v>3231805</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>3221211</v>
+        <v>3221143</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>3240634</v>
+        <v>3240664</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9909361668309242</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9876878376029756</v>
+        <v>0.987667222347842</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9936435411466541</v>
+        <v>0.9936526469197612</v>
       </c>
     </row>
     <row r="27">
